--- a/pinout.xlsx
+++ b/pinout.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3.2\module\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Module8-9-G7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A29416-3BF3-44B6-B10E-EE89D601C752}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EE8AE1-F580-474C-9141-1D19596D3E03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{C0339BB4-A08B-4D5A-9E0F-48ACFA731646}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="81">
   <si>
     <t>device</t>
   </si>
@@ -66,27 +66,6 @@
     <t>Output port</t>
   </si>
   <si>
-    <t>PB1</t>
-  </si>
-  <si>
-    <t>PB2</t>
-  </si>
-  <si>
-    <t>PF11</t>
-  </si>
-  <si>
-    <t>PF12</t>
-  </si>
-  <si>
-    <t>PF13</t>
-  </si>
-  <si>
-    <t>PF14</t>
-  </si>
-  <si>
-    <t>PF15</t>
-  </si>
-  <si>
     <t>AMT10 Incremental Encoder</t>
   </si>
   <si>
@@ -111,30 +90,15 @@
     <t xml:space="preserve">Timer1 with encoder mode </t>
   </si>
   <si>
-    <t>PE9</t>
-  </si>
-  <si>
-    <t>PE11</t>
-  </si>
-  <si>
     <t>PC6</t>
   </si>
   <si>
     <t>PC7</t>
   </si>
   <si>
-    <t>PA15</t>
-  </si>
-  <si>
-    <t>PB3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Timer3 with encoder mode </t>
   </si>
   <si>
-    <t>PB4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Timer4 with encoder mode </t>
   </si>
   <si>
@@ -153,12 +117,6 @@
     <t>SCK</t>
   </si>
   <si>
-    <t>SPI1</t>
-  </si>
-  <si>
-    <t>PD7</t>
-  </si>
-  <si>
     <t>PG9</t>
   </si>
   <si>
@@ -177,9 +135,6 @@
     <t>Data</t>
   </si>
   <si>
-    <t>UART4</t>
-  </si>
-  <si>
     <t>Output Port</t>
   </si>
   <si>
@@ -192,9 +147,6 @@
     <t>PC Communication with RS485</t>
   </si>
   <si>
-    <t>UART7</t>
-  </si>
-  <si>
     <t>PF6</t>
   </si>
   <si>
@@ -234,13 +186,97 @@
     <t>PE5</t>
   </si>
   <si>
-    <t>PG0</t>
-  </si>
-  <si>
     <t>MISO</t>
   </si>
   <si>
     <t>PA7</t>
+  </si>
+  <si>
+    <t>PE1</t>
+  </si>
+  <si>
+    <t>PE0</t>
+  </si>
+  <si>
+    <t>PB9</t>
+  </si>
+  <si>
+    <t>PB8</t>
+  </si>
+  <si>
+    <t>PG12</t>
+  </si>
+  <si>
+    <t>PG10</t>
+  </si>
+  <si>
+    <t>PA9</t>
+  </si>
+  <si>
+    <t>PA8</t>
+  </si>
+  <si>
+    <t>PC12</t>
+  </si>
+  <si>
+    <t>PB11</t>
+  </si>
+  <si>
+    <t>PB15</t>
+  </si>
+  <si>
+    <t>PB14</t>
+  </si>
+  <si>
+    <t>PB12</t>
+  </si>
+  <si>
+    <t>PB13</t>
+  </si>
+  <si>
+    <t>ST-LINK</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>SWCLK</t>
+  </si>
+  <si>
+    <t>SWDIO</t>
+  </si>
+  <si>
+    <t>USART3</t>
+  </si>
+  <si>
+    <t>Debug Serial wire</t>
+  </si>
+  <si>
+    <t>PA14</t>
+  </si>
+  <si>
+    <t>PA13</t>
+  </si>
+  <si>
+    <t>PD8</t>
+  </si>
+  <si>
+    <t>PD9</t>
+  </si>
+  <si>
+    <t>USART1</t>
+  </si>
+  <si>
+    <t>SPI3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timer8 with encoder mode </t>
+  </si>
+  <si>
+    <t>UART5</t>
   </si>
 </sst>
 </file>
@@ -451,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -477,12 +513,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -513,9 +543,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -523,6 +550,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -534,34 +588,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,6 +608,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE44A6F6-730C-40AE-BC69-795AE5843C93}">
   <dimension ref="A2:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P40" sqref="P39:P40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -910,140 +949,140 @@
   <sheetData>
     <row r="2" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H2" s="5"/>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
       <c r="L2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
       <c r="H3" s="2">
         <v>3</v>
       </c>
-      <c r="I3" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="27"/>
+      <c r="I3" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="33"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
-      <c r="B4" s="24"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
+        <v>39</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
       <c r="K4" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
-      <c r="B5" s="24"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="31"/>
+        <v>56</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="25"/>
       <c r="K5" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
-      <c r="B6" s="24"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="27"/>
       <c r="K6" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="24"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>4</v>
@@ -1054,112 +1093,112 @@
       <c r="H7" s="2">
         <v>4</v>
       </c>
-      <c r="I7" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="27"/>
+      <c r="I7" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="33"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
-      <c r="B8" s="24"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="19"/>
+        <v>28</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="7"/>
       <c r="K8" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
-      <c r="B9" s="24"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="19"/>
+        <v>53</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="8"/>
       <c r="K9" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
-      <c r="B10" s="24"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="18"/>
+        <v>37</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="16"/>
       <c r="K10" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
-      <c r="B11" s="24"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="H11" s="4">
         <v>5</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
@@ -1168,96 +1207,96 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="24"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="14"/>
+        <v>54</v>
+      </c>
+      <c r="H12" s="12"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="6" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
-      <c r="B13" s="24"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="14"/>
+        <v>38</v>
+      </c>
+      <c r="H13" s="12"/>
       <c r="I13" s="7"/>
       <c r="J13" s="8"/>
       <c r="K13" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
-      <c r="B14" s="24"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="40"/>
+        <v>27</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="38"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
-      <c r="B15" s="24"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="23">
+        <v>55</v>
+      </c>
+      <c r="H15" s="20">
         <v>6</v>
       </c>
-      <c r="I15" s="27" t="s">
-        <v>56</v>
+      <c r="I15" s="33" t="s">
+        <v>40</v>
       </c>
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
@@ -1269,261 +1308,294 @@
         <v>2</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="29"/>
+        <v>10</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
       <c r="K16" s="6" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
-      <c r="B17" s="35"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>17</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="31"/>
+        <v>58</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
       <c r="K17" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M17" s="23" t="s">
-        <v>63</v>
+        <v>45</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
-      <c r="B18" s="36"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="3"/>
       <c r="D18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="E18" s="35"/>
       <c r="F18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
+        <v>59</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="25"/>
       <c r="K18" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="29"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="33"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="23"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="27"/>
       <c r="K19" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="33"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="9"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="27"/>
+      <c r="H20" s="20">
+        <v>7</v>
+      </c>
+      <c r="I20" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
-      <c r="B21" s="36"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>31</v>
+        <v>12</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>20</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
-      <c r="B22" s="36"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="3"/>
       <c r="D22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="E22" s="35"/>
       <c r="F22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="42"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
+      <c r="L22" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="29"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="9"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="23"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="M23" s="21" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="33"/>
-      <c r="L24" s="10"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="27"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="M24" s="43" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
-      <c r="B25" s="36"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>31</v>
+        <v>12</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>21</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
-      <c r="B26" s="36"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="3"/>
       <c r="D26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="33"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
-      <c r="B29" s="36"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>79</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
-      <c r="B30" s="36"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="3"/>
       <c r="D30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="E30" s="35"/>
       <c r="F30" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="23"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="33"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="27"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
@@ -1534,7 +1606,17 @@
       <c r="F33" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="25">
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:B15"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="I4:J6"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I15:M15"/>
     <mergeCell ref="I16:J19"/>
     <mergeCell ref="B17:B32"/>
     <mergeCell ref="I7:M7"/>
@@ -1548,14 +1630,8 @@
     <mergeCell ref="C27:F28"/>
     <mergeCell ref="C23:F24"/>
     <mergeCell ref="C19:F20"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B4:B15"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="I4:J6"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="H21:H24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
